--- a/Code/Results/Cases/Case_3_69/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_69/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005340715438458</v>
+        <v>1.029050171712995</v>
       </c>
       <c r="D2">
-        <v>1.025447987695956</v>
+        <v>1.038593922272283</v>
       </c>
       <c r="E2">
-        <v>1.011087374011081</v>
+        <v>1.028939484054135</v>
       </c>
       <c r="F2">
-        <v>1.031332052636702</v>
+        <v>1.049556264529468</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045299570994507</v>
+        <v>1.037227963336635</v>
       </c>
       <c r="J2">
-        <v>1.027362851648726</v>
+        <v>1.03419909610919</v>
       </c>
       <c r="K2">
-        <v>1.03656382025809</v>
+        <v>1.041381511715689</v>
       </c>
       <c r="L2">
-        <v>1.022394375292669</v>
+        <v>1.031754843321486</v>
       </c>
       <c r="M2">
-        <v>1.042371480200562</v>
+        <v>1.052312994001108</v>
       </c>
       <c r="N2">
-        <v>1.013046985468521</v>
+        <v>1.015412848883221</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008823955694983</v>
+        <v>1.029797076104069</v>
       </c>
       <c r="D3">
-        <v>1.02801653186334</v>
+        <v>1.039172919366744</v>
       </c>
       <c r="E3">
-        <v>1.013798680092266</v>
+        <v>1.029568752458215</v>
       </c>
       <c r="F3">
-        <v>1.034558627804277</v>
+        <v>1.050305086773869</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04620163015611</v>
+        <v>1.037382267849378</v>
       </c>
       <c r="J3">
-        <v>1.029076927401766</v>
+        <v>1.034587905700218</v>
       </c>
       <c r="K3">
-        <v>1.038303059076619</v>
+        <v>1.041771164593182</v>
       </c>
       <c r="L3">
-        <v>1.024257996854767</v>
+        <v>1.032192634440216</v>
       </c>
       <c r="M3">
-        <v>1.04476762450438</v>
+        <v>1.052874249870005</v>
       </c>
       <c r="N3">
-        <v>1.013621837297116</v>
+        <v>1.015542531961086</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01104016430884</v>
+        <v>1.030281153918554</v>
       </c>
       <c r="D4">
-        <v>1.029654018018769</v>
+        <v>1.039548269894947</v>
       </c>
       <c r="E4">
-        <v>1.015529458650227</v>
+        <v>1.029976992166319</v>
       </c>
       <c r="F4">
-        <v>1.036616537855721</v>
+        <v>1.050790728854377</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046768170252877</v>
+        <v>1.037481343308954</v>
       </c>
       <c r="J4">
-        <v>1.030165616440628</v>
+        <v>1.034839578222447</v>
       </c>
       <c r="K4">
-        <v>1.039407248672075</v>
+        <v>1.042023294375968</v>
       </c>
       <c r="L4">
-        <v>1.025444001289675</v>
+        <v>1.03247628446885</v>
       </c>
       <c r="M4">
-        <v>1.046292240870903</v>
+        <v>1.053237855903543</v>
       </c>
       <c r="N4">
-        <v>1.013986865163637</v>
+        <v>1.015626448408771</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01196308531088</v>
+        <v>1.030484845130413</v>
       </c>
       <c r="D5">
-        <v>1.030336680498929</v>
+        <v>1.039706233011509</v>
       </c>
       <c r="E5">
-        <v>1.016251567497688</v>
+        <v>1.030148868095853</v>
       </c>
       <c r="F5">
-        <v>1.037474709059908</v>
+        <v>1.050995154807279</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047002299122561</v>
+        <v>1.037522809530752</v>
       </c>
       <c r="J5">
-        <v>1.030618515361127</v>
+        <v>1.034945400758891</v>
       </c>
       <c r="K5">
-        <v>1.039866474811071</v>
+        <v>1.042129287906403</v>
       </c>
       <c r="L5">
-        <v>1.025937944677868</v>
+        <v>1.032595617996749</v>
       </c>
       <c r="M5">
-        <v>1.04692714066438</v>
+        <v>1.05339081838611</v>
       </c>
       <c r="N5">
-        <v>1.014138695708983</v>
+        <v>1.015661727075722</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012117540379597</v>
+        <v>1.03051905656531</v>
       </c>
       <c r="D6">
-        <v>1.030450970016237</v>
+        <v>1.039732765375769</v>
       </c>
       <c r="E6">
-        <v>1.016372493700115</v>
+        <v>1.030177741536076</v>
       </c>
       <c r="F6">
-        <v>1.03761839604013</v>
+        <v>1.051029494123021</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047041374963907</v>
+        <v>1.037529761014444</v>
       </c>
       <c r="J6">
-        <v>1.030694281430728</v>
+        <v>1.034963169927163</v>
       </c>
       <c r="K6">
-        <v>1.039943292094158</v>
+        <v>1.042147084537715</v>
       </c>
       <c r="L6">
-        <v>1.026020610144588</v>
+        <v>1.032615659682547</v>
       </c>
       <c r="M6">
-        <v>1.047033392382649</v>
+        <v>1.053416507416816</v>
       </c>
       <c r="N6">
-        <v>1.014164094278087</v>
+        <v>1.015667650516334</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01105253057442</v>
+        <v>1.03028387492649</v>
       </c>
       <c r="D7">
-        <v>1.029663162151004</v>
+        <v>1.039550379957051</v>
       </c>
       <c r="E7">
-        <v>1.015539128968717</v>
+        <v>1.029979287793462</v>
       </c>
       <c r="F7">
-        <v>1.036628031945145</v>
+        <v>1.050793459377269</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046771314506106</v>
+        <v>1.037481898110948</v>
       </c>
       <c r="J7">
-        <v>1.030171686765922</v>
+        <v>1.034840992153797</v>
       </c>
       <c r="K7">
-        <v>1.039413404288079</v>
+        <v>1.042024710675695</v>
       </c>
       <c r="L7">
-        <v>1.025450619528114</v>
+        <v>1.032477878669108</v>
       </c>
       <c r="M7">
-        <v>1.046300748019196</v>
+        <v>1.053239899395286</v>
       </c>
       <c r="N7">
-        <v>1.013988900279865</v>
+        <v>1.015626919803898</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006525847033702</v>
+        <v>1.029302428685177</v>
       </c>
       <c r="D8">
-        <v>1.026321202958181</v>
+        <v>1.03878945077138</v>
       </c>
       <c r="E8">
-        <v>1.012008650942649</v>
+        <v>1.029151927348962</v>
       </c>
       <c r="F8">
-        <v>1.032428792585563</v>
+        <v>1.049809102547985</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045608015622619</v>
+        <v>1.037280270201582</v>
       </c>
       <c r="J8">
-        <v>1.027946427173719</v>
+        <v>1.034330477362546</v>
       </c>
       <c r="K8">
-        <v>1.037156060303758</v>
+        <v>1.041513196221039</v>
       </c>
       <c r="L8">
-        <v>1.023028377736109</v>
+        <v>1.031902719388668</v>
       </c>
       <c r="M8">
-        <v>1.043186706212964</v>
+        <v>1.052502581662591</v>
       </c>
       <c r="N8">
-        <v>1.013242717268134</v>
+        <v>1.015456675010948</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.998249059054763</v>
+        <v>1.027579063458512</v>
       </c>
       <c r="D9">
-        <v>1.020237962419729</v>
+        <v>1.037454050863971</v>
       </c>
       <c r="E9">
-        <v>1.005599909400669</v>
+        <v>1.02770222862042</v>
       </c>
       <c r="F9">
-        <v>1.024791617133658</v>
+        <v>1.04808309641818</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043423868113888</v>
+        <v>1.036919114776184</v>
       </c>
       <c r="J9">
-        <v>1.023863799431947</v>
+        <v>1.033431609052808</v>
       </c>
       <c r="K9">
-        <v>1.033011009608322</v>
+        <v>1.040611892625273</v>
       </c>
       <c r="L9">
-        <v>1.018602780678602</v>
+        <v>1.030892114534558</v>
       </c>
       <c r="M9">
-        <v>1.037494877187446</v>
+        <v>1.05120675492646</v>
       </c>
       <c r="N9">
-        <v>1.011873094473087</v>
+        <v>1.015156724960627</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9925124055190053</v>
+        <v>1.026434353815088</v>
       </c>
       <c r="D10">
-        <v>1.016042548320232</v>
+        <v>1.03656757088321</v>
       </c>
       <c r="E10">
-        <v>1.001191532673848</v>
+        <v>1.026741409159042</v>
       </c>
       <c r="F10">
-        <v>1.019527937941143</v>
+        <v>1.046938315194816</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04187325130848</v>
+        <v>1.03667445119293</v>
       </c>
       <c r="J10">
-        <v>1.021026279752858</v>
+        <v>1.032832931270014</v>
       </c>
       <c r="K10">
-        <v>1.030128067355568</v>
+        <v>1.040011142818644</v>
       </c>
       <c r="L10">
-        <v>1.015539306904956</v>
+        <v>1.030220417047178</v>
       </c>
       <c r="M10">
-        <v>1.033553339130587</v>
+        <v>1.050345282347628</v>
       </c>
       <c r="N10">
-        <v>1.010920855440314</v>
+        <v>1.014956816147202</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9899724697252889</v>
+        <v>1.025939703752315</v>
       </c>
       <c r="D11">
-        <v>1.01419051594589</v>
+        <v>1.03618463875436</v>
       </c>
       <c r="E11">
-        <v>0.9992481358488811</v>
+        <v>1.026326728971373</v>
       </c>
       <c r="F11">
-        <v>1.017204921867336</v>
+        <v>1.046444038257575</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041178394207564</v>
+        <v>1.036567595800246</v>
       </c>
       <c r="J11">
-        <v>1.019768438625409</v>
+        <v>1.032573849037747</v>
       </c>
       <c r="K11">
-        <v>1.028849691534578</v>
+        <v>1.039751057958042</v>
       </c>
       <c r="L11">
-        <v>1.014184245169028</v>
+        <v>1.029930067329833</v>
       </c>
       <c r="M11">
-        <v>1.031809512144853</v>
+        <v>1.049972850993387</v>
       </c>
       <c r="N11">
-        <v>1.010498684153133</v>
+        <v>1.01487027329958</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9890202609239109</v>
+        <v>1.025756123531304</v>
       </c>
       <c r="D12">
-        <v>1.013497075507614</v>
+        <v>1.03604254093735</v>
       </c>
       <c r="E12">
-        <v>0.9985208767594642</v>
+        <v>1.0261729048895</v>
       </c>
       <c r="F12">
-        <v>1.016335205206987</v>
+        <v>1.046260657644503</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040916682569459</v>
+        <v>1.036527768372643</v>
       </c>
       <c r="J12">
-        <v>1.019296683392521</v>
+        <v>1.032477638174301</v>
       </c>
       <c r="K12">
-        <v>1.028370182039416</v>
+        <v>1.03965445891211</v>
       </c>
       <c r="L12">
-        <v>1.013676469405745</v>
+        <v>1.02982229515105</v>
       </c>
       <c r="M12">
-        <v>1.031156000222397</v>
+        <v>1.049834604274116</v>
       </c>
       <c r="N12">
-        <v>1.010340341839338</v>
+        <v>1.014838130784917</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9892249155215591</v>
+        <v>1.02579549507182</v>
       </c>
       <c r="D13">
-        <v>1.013646073571654</v>
+        <v>1.03607301502271</v>
       </c>
       <c r="E13">
-        <v>0.9986771238485447</v>
+        <v>1.026205891293811</v>
       </c>
       <c r="F13">
-        <v>1.01652207650585</v>
+        <v>1.046299983602747</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04097298550734</v>
+        <v>1.036536317658471</v>
       </c>
       <c r="J13">
-        <v>1.019398084354453</v>
+        <v>1.032498274631076</v>
       </c>
       <c r="K13">
-        <v>1.028473251995395</v>
+        <v>1.039675179347348</v>
       </c>
       <c r="L13">
-        <v>1.013785592774436</v>
+        <v>1.029845409156436</v>
       </c>
       <c r="M13">
-        <v>1.031296445500248</v>
+        <v>1.049864254521691</v>
       </c>
       <c r="N13">
-        <v>1.010374376828103</v>
+        <v>1.014845025303713</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9898939407771272</v>
+        <v>1.025924525783332</v>
       </c>
       <c r="D14">
-        <v>1.014133309576764</v>
+        <v>1.036172890031942</v>
       </c>
       <c r="E14">
-        <v>0.9991881316651884</v>
+        <v>1.026314009597822</v>
       </c>
       <c r="F14">
-        <v>1.017133172021202</v>
+        <v>1.0464288755419</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041156835241348</v>
+        <v>1.036564306434107</v>
       </c>
       <c r="J14">
-        <v>1.019729536660253</v>
+        <v>1.032565895723899</v>
       </c>
       <c r="K14">
-        <v>1.028810151164892</v>
+        <v>1.039743072877992</v>
       </c>
       <c r="L14">
-        <v>1.014142363876557</v>
+        <v>1.029921157275616</v>
       </c>
       <c r="M14">
-        <v>1.031755611688789</v>
+        <v>1.049961421611588</v>
       </c>
       <c r="N14">
-        <v>1.010485627018884</v>
+        <v>1.014867616318019</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9903049769420804</v>
+        <v>1.026004046442796</v>
       </c>
       <c r="D15">
-        <v>1.014432775189073</v>
+        <v>1.036234444964626</v>
       </c>
       <c r="E15">
-        <v>0.999502259243188</v>
+        <v>1.026380652293918</v>
       </c>
       <c r="F15">
-        <v>1.017508773010341</v>
+        <v>1.046508318792729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041269629876798</v>
+        <v>1.036581533168939</v>
       </c>
       <c r="J15">
-        <v>1.019933149439193</v>
+        <v>1.032607562508242</v>
       </c>
       <c r="K15">
-        <v>1.029017103245759</v>
+        <v>1.039784905434015</v>
       </c>
       <c r="L15">
-        <v>1.014361588487935</v>
+        <v>1.029967838393091</v>
       </c>
       <c r="M15">
-        <v>1.032037747460526</v>
+        <v>1.050021301561304</v>
       </c>
       <c r="N15">
-        <v>1.010553967776389</v>
+        <v>1.014881535846667</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9926797639730744</v>
+        <v>1.026467203710203</v>
       </c>
       <c r="D16">
-        <v>1.016164699444974</v>
+        <v>1.036593004378441</v>
       </c>
       <c r="E16">
-        <v>1.001319764459118</v>
+        <v>1.026768958973723</v>
       </c>
       <c r="F16">
-        <v>1.019681163683879</v>
+        <v>1.046971148866692</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041918865409034</v>
+        <v>1.036681523636047</v>
       </c>
       <c r="J16">
-        <v>1.021109130876719</v>
+        <v>1.032850128967294</v>
       </c>
       <c r="K16">
-        <v>1.03021226332936</v>
+        <v>1.040028404842451</v>
       </c>
       <c r="L16">
-        <v>1.015628623155274</v>
+        <v>1.030239697263204</v>
       </c>
       <c r="M16">
-        <v>1.033668272293443</v>
+        <v>1.050370012026968</v>
       </c>
       <c r="N16">
-        <v>1.01094866192093</v>
+        <v>1.014962560153689</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9941541827611091</v>
+        <v>1.02675800371216</v>
       </c>
       <c r="D17">
-        <v>1.017241479209546</v>
+        <v>1.036818166881031</v>
       </c>
       <c r="E17">
-        <v>1.002450447835003</v>
+        <v>1.027012899374167</v>
       </c>
       <c r="F17">
-        <v>1.02103193624445</v>
+        <v>1.047261852034857</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04231977828452</v>
+        <v>1.036744000761199</v>
       </c>
       <c r="J17">
-        <v>1.02183887557978</v>
+        <v>1.033002325430386</v>
       </c>
       <c r="K17">
-        <v>1.030953808643061</v>
+        <v>1.040181158348816</v>
       </c>
       <c r="L17">
-        <v>1.016415647810512</v>
+        <v>1.030410362040156</v>
       </c>
       <c r="M17">
-        <v>1.03468098196326</v>
+        <v>1.050588908738428</v>
       </c>
       <c r="N17">
-        <v>1.011193572753507</v>
+        <v>1.015013389997325</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9950088155106762</v>
+        <v>1.026927720397136</v>
       </c>
       <c r="D18">
-        <v>1.017866145699467</v>
+        <v>1.036949588944035</v>
       </c>
       <c r="E18">
-        <v>1.003106638042212</v>
+        <v>1.027155316854686</v>
       </c>
       <c r="F18">
-        <v>1.021815610599002</v>
+        <v>1.047431551210265</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042551369713006</v>
+        <v>1.036780354326165</v>
       </c>
       <c r="J18">
-        <v>1.022261718994506</v>
+        <v>1.03309111335415</v>
       </c>
       <c r="K18">
-        <v>1.031383451312902</v>
+        <v>1.040270261008984</v>
       </c>
       <c r="L18">
-        <v>1.016871961471865</v>
+        <v>1.030509956029367</v>
       </c>
       <c r="M18">
-        <v>1.0352681113864</v>
+        <v>1.050716644472521</v>
       </c>
       <c r="N18">
-        <v>1.011335478653307</v>
+        <v>1.015043039983733</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9952993228750048</v>
+        <v>1.026985605953964</v>
       </c>
       <c r="D19">
-        <v>1.018078569775201</v>
+        <v>1.036994415433628</v>
       </c>
       <c r="E19">
-        <v>1.003329825191721</v>
+        <v>1.027203899719285</v>
       </c>
       <c r="F19">
-        <v>1.022082117270193</v>
+        <v>1.04748943739798</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042629956720703</v>
+        <v>1.036792734953099</v>
       </c>
       <c r="J19">
-        <v>1.022405426547315</v>
+        <v>1.033121390124952</v>
       </c>
       <c r="K19">
-        <v>1.031529462916087</v>
+        <v>1.040300643368117</v>
       </c>
       <c r="L19">
-        <v>1.017027091705977</v>
+        <v>1.030543923119251</v>
       </c>
       <c r="M19">
-        <v>1.035467708261075</v>
+        <v>1.050760208663783</v>
       </c>
       <c r="N19">
-        <v>1.01138370583882</v>
+        <v>1.015053150152734</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9939965496553078</v>
+        <v>1.02672679347622</v>
       </c>
       <c r="D20">
-        <v>1.017126304093622</v>
+        <v>1.036793999897743</v>
       </c>
       <c r="E20">
-        <v>1.002329480889814</v>
+        <v>1.026986713294717</v>
       </c>
       <c r="F20">
-        <v>1.020887448293394</v>
+        <v>1.047230648155064</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042276997937966</v>
+        <v>1.03673730668287</v>
       </c>
       <c r="J20">
-        <v>1.021760872029694</v>
+        <v>1.032985994700891</v>
       </c>
       <c r="K20">
-        <v>1.030874547647558</v>
+        <v>1.040164768905997</v>
       </c>
       <c r="L20">
-        <v>1.016331492487082</v>
+        <v>1.030392046337056</v>
       </c>
       <c r="M20">
-        <v>1.034572698171587</v>
+        <v>1.05056541728467</v>
       </c>
       <c r="N20">
-        <v>1.011167394387127</v>
+        <v>1.015007936246514</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.989697174426972</v>
+        <v>1.025886525163851</v>
       </c>
       <c r="D21">
-        <v>1.013989984530152</v>
+        <v>1.036143475443499</v>
       </c>
       <c r="E21">
-        <v>0.9990378032288015</v>
+        <v>1.026282165731706</v>
       </c>
       <c r="F21">
-        <v>1.016953410759225</v>
+        <v>1.046390914100802</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041102796503922</v>
+        <v>1.036556068200983</v>
       </c>
       <c r="J21">
-        <v>1.019632058734604</v>
+        <v>1.032545982328893</v>
       </c>
       <c r="K21">
-        <v>1.028711072744128</v>
+        <v>1.039723079691315</v>
       </c>
       <c r="L21">
-        <v>1.014037427681104</v>
+        <v>1.029898849214534</v>
       </c>
       <c r="M21">
-        <v>1.03162055982471</v>
+        <v>1.049932805801518</v>
       </c>
       <c r="N21">
-        <v>1.010452909235006</v>
+        <v>1.014860963730826</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9869430905948016</v>
+        <v>1.025359111992212</v>
       </c>
       <c r="D22">
-        <v>1.011986054473127</v>
+        <v>1.035735277225577</v>
       </c>
       <c r="E22">
-        <v>0.9969368720694878</v>
+        <v>1.025840385111055</v>
       </c>
       <c r="F22">
-        <v>1.014440182084313</v>
+        <v>1.045864189982682</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040343590311259</v>
+        <v>1.03644132658247</v>
       </c>
       <c r="J22">
-        <v>1.018267257660679</v>
+        <v>1.032269467553673</v>
       </c>
       <c r="K22">
-        <v>1.027323747031263</v>
+        <v>1.039445419464667</v>
       </c>
       <c r="L22">
-        <v>1.012569255333387</v>
+        <v>1.029589200757912</v>
       </c>
       <c r="M22">
-        <v>1.029730903044782</v>
+        <v>1.04953558454465</v>
       </c>
       <c r="N22">
-        <v>1.009994810558367</v>
+        <v>1.014768575918751</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9884080324667029</v>
+        <v>1.025638617986486</v>
       </c>
       <c r="D23">
-        <v>1.013051477060513</v>
+        <v>1.035951593134022</v>
       </c>
       <c r="E23">
-        <v>0.9980536557268941</v>
+        <v>1.026074467261793</v>
       </c>
       <c r="F23">
-        <v>1.015776350625522</v>
+        <v>1.046143297124155</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040748076179465</v>
+        <v>1.036502227878349</v>
       </c>
       <c r="J23">
-        <v>1.018993313811965</v>
+        <v>1.032416039676348</v>
       </c>
       <c r="K23">
-        <v>1.028061812044769</v>
+        <v>1.039592607427243</v>
       </c>
       <c r="L23">
-        <v>1.013350060887045</v>
+        <v>1.029753308644489</v>
       </c>
       <c r="M23">
-        <v>1.030735893776987</v>
+        <v>1.049746108479353</v>
       </c>
       <c r="N23">
-        <v>1.010238515782554</v>
+        <v>1.014817550417547</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9940677938422724</v>
+        <v>1.026740895736003</v>
       </c>
       <c r="D24">
-        <v>1.017178357267198</v>
+        <v>1.036804919643811</v>
       </c>
       <c r="E24">
-        <v>1.002384150885659</v>
+        <v>1.026998545251851</v>
       </c>
       <c r="F24">
-        <v>1.020952749166048</v>
+        <v>1.047244747422406</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042296335495064</v>
+        <v>1.036740331721621</v>
       </c>
       <c r="J24">
-        <v>1.021796127131786</v>
+        <v>1.032993373810604</v>
       </c>
       <c r="K24">
-        <v>1.030910371194477</v>
+        <v>1.04017217457719</v>
       </c>
       <c r="L24">
-        <v>1.016369527125857</v>
+        <v>1.030400322266452</v>
       </c>
       <c r="M24">
-        <v>1.034621637965102</v>
+        <v>1.050576031885634</v>
       </c>
       <c r="N24">
-        <v>1.011179226185369</v>
+        <v>1.015010400556263</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000426076801329</v>
+        <v>1.028023863131982</v>
       </c>
       <c r="D25">
-        <v>1.021834580358865</v>
+        <v>1.037798625051769</v>
       </c>
       <c r="E25">
-        <v>1.007279930486264</v>
+        <v>1.028076024222997</v>
       </c>
       <c r="F25">
-        <v>1.026795415904196</v>
+        <v>1.0485282823058</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044004857964123</v>
+        <v>1.037013171814014</v>
       </c>
       <c r="J25">
-        <v>1.024939110265742</v>
+        <v>1.033663893911919</v>
       </c>
       <c r="K25">
-        <v>1.03410314103474</v>
+        <v>1.040844886443767</v>
       </c>
       <c r="L25">
-        <v>1.019766276374058</v>
+        <v>1.031153027275904</v>
       </c>
       <c r="M25">
-        <v>1.038991535311842</v>
+        <v>1.05154134024886</v>
       </c>
       <c r="N25">
-        <v>1.012233897635918</v>
+        <v>1.015234261153158</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_69/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_69/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029050171712995</v>
+        <v>1.005340715438458</v>
       </c>
       <c r="D2">
-        <v>1.038593922272283</v>
+        <v>1.025447987695956</v>
       </c>
       <c r="E2">
-        <v>1.028939484054135</v>
+        <v>1.01108737401108</v>
       </c>
       <c r="F2">
-        <v>1.049556264529468</v>
+        <v>1.031332052636702</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037227963336635</v>
+        <v>1.045299570994507</v>
       </c>
       <c r="J2">
-        <v>1.03419909610919</v>
+        <v>1.027362851648726</v>
       </c>
       <c r="K2">
-        <v>1.041381511715689</v>
+        <v>1.03656382025809</v>
       </c>
       <c r="L2">
-        <v>1.031754843321486</v>
+        <v>1.022394375292669</v>
       </c>
       <c r="M2">
-        <v>1.052312994001108</v>
+        <v>1.042371480200562</v>
       </c>
       <c r="N2">
-        <v>1.015412848883221</v>
+        <v>1.013046985468521</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029797076104069</v>
+        <v>1.008823955694982</v>
       </c>
       <c r="D3">
-        <v>1.039172919366744</v>
+        <v>1.028016531863339</v>
       </c>
       <c r="E3">
-        <v>1.029568752458215</v>
+        <v>1.013798680092264</v>
       </c>
       <c r="F3">
-        <v>1.050305086773869</v>
+        <v>1.034558627804276</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037382267849378</v>
+        <v>1.046201630156109</v>
       </c>
       <c r="J3">
-        <v>1.034587905700218</v>
+        <v>1.029076927401765</v>
       </c>
       <c r="K3">
-        <v>1.041771164593182</v>
+        <v>1.038303059076618</v>
       </c>
       <c r="L3">
-        <v>1.032192634440216</v>
+        <v>1.024257996854766</v>
       </c>
       <c r="M3">
-        <v>1.052874249870005</v>
+        <v>1.04476762450438</v>
       </c>
       <c r="N3">
-        <v>1.015542531961086</v>
+        <v>1.013621837297116</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030281153918554</v>
+        <v>1.011040164308839</v>
       </c>
       <c r="D4">
-        <v>1.039548269894947</v>
+        <v>1.029654018018768</v>
       </c>
       <c r="E4">
-        <v>1.029976992166319</v>
+        <v>1.015529458650225</v>
       </c>
       <c r="F4">
-        <v>1.050790728854377</v>
+        <v>1.036616537855721</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037481343308954</v>
+        <v>1.046768170252876</v>
       </c>
       <c r="J4">
-        <v>1.034839578222447</v>
+        <v>1.030165616440628</v>
       </c>
       <c r="K4">
-        <v>1.042023294375968</v>
+        <v>1.039407248672074</v>
       </c>
       <c r="L4">
-        <v>1.03247628446885</v>
+        <v>1.025444001289674</v>
       </c>
       <c r="M4">
-        <v>1.053237855903543</v>
+        <v>1.046292240870902</v>
       </c>
       <c r="N4">
-        <v>1.015626448408771</v>
+        <v>1.013986865163637</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030484845130413</v>
+        <v>1.011963085310881</v>
       </c>
       <c r="D5">
-        <v>1.039706233011509</v>
+        <v>1.03033668049893</v>
       </c>
       <c r="E5">
-        <v>1.030148868095853</v>
+        <v>1.016251567497688</v>
       </c>
       <c r="F5">
-        <v>1.050995154807279</v>
+        <v>1.037474709059908</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037522809530752</v>
+        <v>1.047002299122561</v>
       </c>
       <c r="J5">
-        <v>1.034945400758891</v>
+        <v>1.030618515361127</v>
       </c>
       <c r="K5">
-        <v>1.042129287906403</v>
+        <v>1.039866474811071</v>
       </c>
       <c r="L5">
-        <v>1.032595617996749</v>
+        <v>1.025937944677868</v>
       </c>
       <c r="M5">
-        <v>1.05339081838611</v>
+        <v>1.04692714066438</v>
       </c>
       <c r="N5">
-        <v>1.015661727075722</v>
+        <v>1.014138695708984</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03051905656531</v>
+        <v>1.012117540379597</v>
       </c>
       <c r="D6">
-        <v>1.039732765375769</v>
+        <v>1.030450970016235</v>
       </c>
       <c r="E6">
-        <v>1.030177741536076</v>
+        <v>1.016372493700114</v>
       </c>
       <c r="F6">
-        <v>1.051029494123021</v>
+        <v>1.037618396040129</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037529761014444</v>
+        <v>1.047041374963906</v>
       </c>
       <c r="J6">
-        <v>1.034963169927163</v>
+        <v>1.030694281430728</v>
       </c>
       <c r="K6">
-        <v>1.042147084537715</v>
+        <v>1.039943292094157</v>
       </c>
       <c r="L6">
-        <v>1.032615659682547</v>
+        <v>1.026020610144587</v>
       </c>
       <c r="M6">
-        <v>1.053416507416816</v>
+        <v>1.047033392382648</v>
       </c>
       <c r="N6">
-        <v>1.015667650516334</v>
+        <v>1.014164094278087</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03028387492649</v>
+        <v>1.01105253057442</v>
       </c>
       <c r="D7">
-        <v>1.039550379957051</v>
+        <v>1.029663162151004</v>
       </c>
       <c r="E7">
-        <v>1.029979287793462</v>
+        <v>1.015539128968717</v>
       </c>
       <c r="F7">
-        <v>1.050793459377269</v>
+        <v>1.036628031945146</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037481898110948</v>
+        <v>1.046771314506106</v>
       </c>
       <c r="J7">
-        <v>1.034840992153797</v>
+        <v>1.030171686765922</v>
       </c>
       <c r="K7">
-        <v>1.042024710675695</v>
+        <v>1.039413404288079</v>
       </c>
       <c r="L7">
-        <v>1.032477878669108</v>
+        <v>1.025450619528114</v>
       </c>
       <c r="M7">
-        <v>1.053239899395286</v>
+        <v>1.046300748019196</v>
       </c>
       <c r="N7">
-        <v>1.015626919803898</v>
+        <v>1.013988900279865</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029302428685177</v>
+        <v>1.006525847033701</v>
       </c>
       <c r="D8">
-        <v>1.03878945077138</v>
+        <v>1.02632120295818</v>
       </c>
       <c r="E8">
-        <v>1.029151927348962</v>
+        <v>1.012008650942648</v>
       </c>
       <c r="F8">
-        <v>1.049809102547985</v>
+        <v>1.032428792585562</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037280270201582</v>
+        <v>1.045608015622618</v>
       </c>
       <c r="J8">
-        <v>1.034330477362546</v>
+        <v>1.027946427173718</v>
       </c>
       <c r="K8">
-        <v>1.041513196221039</v>
+        <v>1.037156060303757</v>
       </c>
       <c r="L8">
-        <v>1.031902719388668</v>
+        <v>1.023028377736108</v>
       </c>
       <c r="M8">
-        <v>1.052502581662591</v>
+        <v>1.043186706212963</v>
       </c>
       <c r="N8">
-        <v>1.015456675010948</v>
+        <v>1.013242717268134</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027579063458512</v>
+        <v>0.9982490590547624</v>
       </c>
       <c r="D9">
-        <v>1.037454050863971</v>
+        <v>1.020237962419728</v>
       </c>
       <c r="E9">
-        <v>1.02770222862042</v>
+        <v>1.005599909400669</v>
       </c>
       <c r="F9">
-        <v>1.04808309641818</v>
+        <v>1.024791617133657</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036919114776184</v>
+        <v>1.043423868113887</v>
       </c>
       <c r="J9">
-        <v>1.033431609052808</v>
+        <v>1.023863799431946</v>
       </c>
       <c r="K9">
-        <v>1.040611892625273</v>
+        <v>1.033011009608321</v>
       </c>
       <c r="L9">
-        <v>1.030892114534558</v>
+        <v>1.018602780678602</v>
       </c>
       <c r="M9">
-        <v>1.05120675492646</v>
+        <v>1.037494877187444</v>
       </c>
       <c r="N9">
-        <v>1.015156724960627</v>
+        <v>1.011873094473086</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026434353815088</v>
+        <v>0.9925124055190047</v>
       </c>
       <c r="D10">
-        <v>1.03656757088321</v>
+        <v>1.016042548320231</v>
       </c>
       <c r="E10">
-        <v>1.026741409159042</v>
+        <v>1.001191532673847</v>
       </c>
       <c r="F10">
-        <v>1.046938315194816</v>
+        <v>1.019527937941142</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03667445119293</v>
+        <v>1.041873251308479</v>
       </c>
       <c r="J10">
-        <v>1.032832931270014</v>
+        <v>1.021026279752857</v>
       </c>
       <c r="K10">
-        <v>1.040011142818644</v>
+        <v>1.030128067355568</v>
       </c>
       <c r="L10">
-        <v>1.030220417047178</v>
+        <v>1.015539306904955</v>
       </c>
       <c r="M10">
-        <v>1.050345282347628</v>
+        <v>1.033553339130586</v>
       </c>
       <c r="N10">
-        <v>1.014956816147202</v>
+        <v>1.010920855440314</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025939703752315</v>
+        <v>0.9899724697252881</v>
       </c>
       <c r="D11">
-        <v>1.03618463875436</v>
+        <v>1.014190515945889</v>
       </c>
       <c r="E11">
-        <v>1.026326728971373</v>
+        <v>0.9992481358488799</v>
       </c>
       <c r="F11">
-        <v>1.046444038257575</v>
+        <v>1.017204921867335</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036567595800246</v>
+        <v>1.041178394207563</v>
       </c>
       <c r="J11">
-        <v>1.032573849037747</v>
+        <v>1.019768438625408</v>
       </c>
       <c r="K11">
-        <v>1.039751057958042</v>
+        <v>1.028849691534578</v>
       </c>
       <c r="L11">
-        <v>1.029930067329833</v>
+        <v>1.014184245169027</v>
       </c>
       <c r="M11">
-        <v>1.049972850993387</v>
+        <v>1.031809512144853</v>
       </c>
       <c r="N11">
-        <v>1.01487027329958</v>
+        <v>1.010498684153132</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025756123531304</v>
+        <v>0.9890202609239108</v>
       </c>
       <c r="D12">
-        <v>1.03604254093735</v>
+        <v>1.013497075507614</v>
       </c>
       <c r="E12">
-        <v>1.0261729048895</v>
+        <v>0.9985208767594644</v>
       </c>
       <c r="F12">
-        <v>1.046260657644503</v>
+        <v>1.016335205206988</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036527768372643</v>
+        <v>1.04091668256946</v>
       </c>
       <c r="J12">
-        <v>1.032477638174301</v>
+        <v>1.019296683392521</v>
       </c>
       <c r="K12">
-        <v>1.03965445891211</v>
+        <v>1.028370182039417</v>
       </c>
       <c r="L12">
-        <v>1.02982229515105</v>
+        <v>1.013676469405745</v>
       </c>
       <c r="M12">
-        <v>1.049834604274116</v>
+        <v>1.031156000222397</v>
       </c>
       <c r="N12">
-        <v>1.014838130784917</v>
+        <v>1.010340341839338</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02579549507182</v>
+        <v>0.9892249155215581</v>
       </c>
       <c r="D13">
-        <v>1.03607301502271</v>
+        <v>1.013646073571653</v>
       </c>
       <c r="E13">
-        <v>1.026205891293811</v>
+        <v>0.9986771238485437</v>
       </c>
       <c r="F13">
-        <v>1.046299983602747</v>
+        <v>1.016522076505849</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036536317658471</v>
+        <v>1.04097298550734</v>
       </c>
       <c r="J13">
-        <v>1.032498274631076</v>
+        <v>1.019398084354452</v>
       </c>
       <c r="K13">
-        <v>1.039675179347348</v>
+        <v>1.028473251995394</v>
       </c>
       <c r="L13">
-        <v>1.029845409156436</v>
+        <v>1.013785592774435</v>
       </c>
       <c r="M13">
-        <v>1.049864254521691</v>
+        <v>1.031296445500247</v>
       </c>
       <c r="N13">
-        <v>1.014845025303713</v>
+        <v>1.010374376828103</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025924525783332</v>
+        <v>0.9898939407771276</v>
       </c>
       <c r="D14">
-        <v>1.036172890031942</v>
+        <v>1.014133309576764</v>
       </c>
       <c r="E14">
-        <v>1.026314009597822</v>
+        <v>0.9991881316651884</v>
       </c>
       <c r="F14">
-        <v>1.0464288755419</v>
+        <v>1.017133172021203</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036564306434107</v>
+        <v>1.041156835241348</v>
       </c>
       <c r="J14">
-        <v>1.032565895723899</v>
+        <v>1.019729536660253</v>
       </c>
       <c r="K14">
-        <v>1.039743072877992</v>
+        <v>1.028810151164892</v>
       </c>
       <c r="L14">
-        <v>1.029921157275616</v>
+        <v>1.014142363876557</v>
       </c>
       <c r="M14">
-        <v>1.049961421611588</v>
+        <v>1.03175561168879</v>
       </c>
       <c r="N14">
-        <v>1.014867616318019</v>
+        <v>1.010485627018884</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026004046442796</v>
+        <v>0.9903049769420804</v>
       </c>
       <c r="D15">
-        <v>1.036234444964626</v>
+        <v>1.014432775189073</v>
       </c>
       <c r="E15">
-        <v>1.026380652293918</v>
+        <v>0.9995022592431878</v>
       </c>
       <c r="F15">
-        <v>1.046508318792729</v>
+        <v>1.017508773010341</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036581533168939</v>
+        <v>1.041269629876798</v>
       </c>
       <c r="J15">
-        <v>1.032607562508242</v>
+        <v>1.019933149439193</v>
       </c>
       <c r="K15">
-        <v>1.039784905434015</v>
+        <v>1.029017103245759</v>
       </c>
       <c r="L15">
-        <v>1.029967838393091</v>
+        <v>1.014361588487935</v>
       </c>
       <c r="M15">
-        <v>1.050021301561304</v>
+        <v>1.032037747460526</v>
       </c>
       <c r="N15">
-        <v>1.014881535846667</v>
+        <v>1.010553967776389</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026467203710203</v>
+        <v>0.992679763973074</v>
       </c>
       <c r="D16">
-        <v>1.036593004378441</v>
+        <v>1.016164699444974</v>
       </c>
       <c r="E16">
-        <v>1.026768958973723</v>
+        <v>1.001319764459118</v>
       </c>
       <c r="F16">
-        <v>1.046971148866692</v>
+        <v>1.019681163683879</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036681523636047</v>
+        <v>1.041918865409033</v>
       </c>
       <c r="J16">
-        <v>1.032850128967294</v>
+        <v>1.021109130876718</v>
       </c>
       <c r="K16">
-        <v>1.040028404842451</v>
+        <v>1.03021226332936</v>
       </c>
       <c r="L16">
-        <v>1.030239697263204</v>
+        <v>1.015628623155274</v>
       </c>
       <c r="M16">
-        <v>1.050370012026968</v>
+        <v>1.033668272293443</v>
       </c>
       <c r="N16">
-        <v>1.014962560153689</v>
+        <v>1.01094866192093</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02675800371216</v>
+        <v>0.9941541827611088</v>
       </c>
       <c r="D17">
-        <v>1.036818166881031</v>
+        <v>1.017241479209546</v>
       </c>
       <c r="E17">
-        <v>1.027012899374167</v>
+        <v>1.002450447835003</v>
       </c>
       <c r="F17">
-        <v>1.047261852034857</v>
+        <v>1.021031936244449</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036744000761199</v>
+        <v>1.04231977828452</v>
       </c>
       <c r="J17">
-        <v>1.033002325430386</v>
+        <v>1.021838875579779</v>
       </c>
       <c r="K17">
-        <v>1.040181158348816</v>
+        <v>1.030953808643061</v>
       </c>
       <c r="L17">
-        <v>1.030410362040156</v>
+        <v>1.016415647810511</v>
       </c>
       <c r="M17">
-        <v>1.050588908738428</v>
+        <v>1.03468098196326</v>
       </c>
       <c r="N17">
-        <v>1.015013389997325</v>
+        <v>1.011193572753507</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026927720397136</v>
+        <v>0.9950088155106755</v>
       </c>
       <c r="D18">
-        <v>1.036949588944035</v>
+        <v>1.017866145699466</v>
       </c>
       <c r="E18">
-        <v>1.027155316854686</v>
+        <v>1.003106638042212</v>
       </c>
       <c r="F18">
-        <v>1.047431551210265</v>
+        <v>1.021815610599001</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036780354326165</v>
+        <v>1.042551369713006</v>
       </c>
       <c r="J18">
-        <v>1.03309111335415</v>
+        <v>1.022261718994506</v>
       </c>
       <c r="K18">
-        <v>1.040270261008984</v>
+        <v>1.031383451312901</v>
       </c>
       <c r="L18">
-        <v>1.030509956029367</v>
+        <v>1.016871961471864</v>
       </c>
       <c r="M18">
-        <v>1.050716644472521</v>
+        <v>1.035268111386399</v>
       </c>
       <c r="N18">
-        <v>1.015043039983733</v>
+        <v>1.011335478653307</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026985605953964</v>
+        <v>0.9952993228750036</v>
       </c>
       <c r="D19">
-        <v>1.036994415433628</v>
+        <v>1.0180785697752</v>
       </c>
       <c r="E19">
-        <v>1.027203899719285</v>
+        <v>1.00332982519172</v>
       </c>
       <c r="F19">
-        <v>1.04748943739798</v>
+        <v>1.022082117270193</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036792734953099</v>
+        <v>1.042629956720703</v>
       </c>
       <c r="J19">
-        <v>1.033121390124952</v>
+        <v>1.022405426547314</v>
       </c>
       <c r="K19">
-        <v>1.040300643368117</v>
+        <v>1.031529462916087</v>
       </c>
       <c r="L19">
-        <v>1.030543923119251</v>
+        <v>1.017027091705976</v>
       </c>
       <c r="M19">
-        <v>1.050760208663783</v>
+        <v>1.035467708261074</v>
       </c>
       <c r="N19">
-        <v>1.015053150152734</v>
+        <v>1.01138370583882</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02672679347622</v>
+        <v>0.9939965496553074</v>
       </c>
       <c r="D20">
-        <v>1.036793999897743</v>
+        <v>1.017126304093622</v>
       </c>
       <c r="E20">
-        <v>1.026986713294717</v>
+        <v>1.002329480889813</v>
       </c>
       <c r="F20">
-        <v>1.047230648155064</v>
+        <v>1.020887448293394</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03673730668287</v>
+        <v>1.042276997937966</v>
       </c>
       <c r="J20">
-        <v>1.032985994700891</v>
+        <v>1.021760872029694</v>
       </c>
       <c r="K20">
-        <v>1.040164768905997</v>
+        <v>1.030874547647558</v>
       </c>
       <c r="L20">
-        <v>1.030392046337056</v>
+        <v>1.016331492487081</v>
       </c>
       <c r="M20">
-        <v>1.05056541728467</v>
+        <v>1.034572698171586</v>
       </c>
       <c r="N20">
-        <v>1.015007936246514</v>
+        <v>1.011167394387127</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025886525163851</v>
+        <v>0.9896971744269717</v>
       </c>
       <c r="D21">
-        <v>1.036143475443499</v>
+        <v>1.013989984530151</v>
       </c>
       <c r="E21">
-        <v>1.026282165731706</v>
+        <v>0.9990378032288012</v>
       </c>
       <c r="F21">
-        <v>1.046390914100802</v>
+        <v>1.016953410759225</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036556068200983</v>
+        <v>1.041102796503922</v>
       </c>
       <c r="J21">
-        <v>1.032545982328893</v>
+        <v>1.019632058734604</v>
       </c>
       <c r="K21">
-        <v>1.039723079691315</v>
+        <v>1.028711072744127</v>
       </c>
       <c r="L21">
-        <v>1.029898849214534</v>
+        <v>1.014037427681103</v>
       </c>
       <c r="M21">
-        <v>1.049932805801518</v>
+        <v>1.031620559824709</v>
       </c>
       <c r="N21">
-        <v>1.014860963730826</v>
+        <v>1.010452909235006</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025359111992212</v>
+        <v>0.9869430905948017</v>
       </c>
       <c r="D22">
-        <v>1.035735277225577</v>
+        <v>1.011986054473127</v>
       </c>
       <c r="E22">
-        <v>1.025840385111055</v>
+        <v>0.9969368720694877</v>
       </c>
       <c r="F22">
-        <v>1.045864189982682</v>
+        <v>1.014440182084313</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03644132658247</v>
+        <v>1.040343590311259</v>
       </c>
       <c r="J22">
-        <v>1.032269467553673</v>
+        <v>1.018267257660679</v>
       </c>
       <c r="K22">
-        <v>1.039445419464667</v>
+        <v>1.027323747031263</v>
       </c>
       <c r="L22">
-        <v>1.029589200757912</v>
+        <v>1.012569255333387</v>
       </c>
       <c r="M22">
-        <v>1.04953558454465</v>
+        <v>1.029730903044783</v>
       </c>
       <c r="N22">
-        <v>1.014768575918751</v>
+        <v>1.009994810558367</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025638617986486</v>
+        <v>0.9884080324667028</v>
       </c>
       <c r="D23">
-        <v>1.035951593134022</v>
+        <v>1.013051477060513</v>
       </c>
       <c r="E23">
-        <v>1.026074467261793</v>
+        <v>0.9980536557268941</v>
       </c>
       <c r="F23">
-        <v>1.046143297124155</v>
+        <v>1.015776350625521</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036502227878349</v>
+        <v>1.040748076179465</v>
       </c>
       <c r="J23">
-        <v>1.032416039676348</v>
+        <v>1.018993313811964</v>
       </c>
       <c r="K23">
-        <v>1.039592607427243</v>
+        <v>1.028061812044769</v>
       </c>
       <c r="L23">
-        <v>1.029753308644489</v>
+        <v>1.013350060887044</v>
       </c>
       <c r="M23">
-        <v>1.049746108479353</v>
+        <v>1.030735893776986</v>
       </c>
       <c r="N23">
-        <v>1.014817550417547</v>
+        <v>1.010238515782554</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026740895736003</v>
+        <v>0.9940677938422721</v>
       </c>
       <c r="D24">
-        <v>1.036804919643811</v>
+        <v>1.017178357267198</v>
       </c>
       <c r="E24">
-        <v>1.026998545251851</v>
+        <v>1.002384150885658</v>
       </c>
       <c r="F24">
-        <v>1.047244747422406</v>
+        <v>1.020952749166047</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036740331721621</v>
+        <v>1.042296335495064</v>
       </c>
       <c r="J24">
-        <v>1.032993373810604</v>
+        <v>1.021796127131785</v>
       </c>
       <c r="K24">
-        <v>1.04017217457719</v>
+        <v>1.030910371194477</v>
       </c>
       <c r="L24">
-        <v>1.030400322266452</v>
+        <v>1.016369527125857</v>
       </c>
       <c r="M24">
-        <v>1.050576031885634</v>
+        <v>1.034621637965102</v>
       </c>
       <c r="N24">
-        <v>1.015010400556263</v>
+        <v>1.011179226185369</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028023863131982</v>
+        <v>1.000426076801329</v>
       </c>
       <c r="D25">
-        <v>1.037798625051769</v>
+        <v>1.021834580358865</v>
       </c>
       <c r="E25">
-        <v>1.028076024222997</v>
+        <v>1.007279930486264</v>
       </c>
       <c r="F25">
-        <v>1.0485282823058</v>
+        <v>1.026795415904196</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037013171814014</v>
+        <v>1.044004857964123</v>
       </c>
       <c r="J25">
-        <v>1.033663893911919</v>
+        <v>1.024939110265742</v>
       </c>
       <c r="K25">
-        <v>1.040844886443767</v>
+        <v>1.03410314103474</v>
       </c>
       <c r="L25">
-        <v>1.031153027275904</v>
+        <v>1.019766276374058</v>
       </c>
       <c r="M25">
-        <v>1.05154134024886</v>
+        <v>1.038991535311842</v>
       </c>
       <c r="N25">
-        <v>1.015234261153158</v>
+        <v>1.012233897635918</v>
       </c>
     </row>
   </sheetData>
